--- a/src/route/excel/baikiemtra.xlsx
+++ b/src/route/excel/baikiemtra.xlsx
@@ -442,7 +442,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
